--- a/Listas de precios/minorista/TIRAFONDOS.xlsx
+++ b/Listas de precios/minorista/TIRAFONDOS.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1902,68 +1902,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B80:C80"/>
     <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B86:C86"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B75:C75"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/TIRAFONDOS.xlsx
+++ b/Listas de precios/minorista/TIRAFONDOS.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1902,68 +1902,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B90:C90"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B81:C81"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B93:C93"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A44:C44"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B80:C80"/>
     <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B51:C51"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/TIRAFONDOS.xlsx
+++ b/Listas de precios/minorista/TIRAFONDOS.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1902,68 +1902,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B80:C80"/>
     <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B86:C86"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B75:C75"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>
